--- a/data/StopTox_Validation_Raw_Data.xlsx
+++ b/data/StopTox_Validation_Raw_Data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10209"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\Departments\NICEATM\StopTox\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ricat/Documents/GitHub/StopTox-External-Validation/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6A4FC68A-992F-4C97-B1E6-CFC27D3BB6E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0302C899-04C6-C746-99FA-895AF00649C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-30" windowWidth="29040" windowHeight="15840" xr2:uid="{824EBEB4-6457-4996-BFC7-D3F41352EBA8}"/>
+    <workbookView xWindow="9360" yWindow="500" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{824EBEB4-6457-4996-BFC7-D3F41352EBA8}"/>
   </bookViews>
   <sheets>
     <sheet name="Skin sensitization" sheetId="1" r:id="rId1"/>
@@ -1473,9 +1473,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1513,7 +1513,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1619,7 +1619,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1761,7 +1761,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1771,27 +1771,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E08C925-0D69-45B8-A164-827572550239}">
   <dimension ref="A1:BI26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A13" sqref="A13:XFD13"/>
+      <selection pane="bottomRight" activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="24.44140625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="24.5" style="1" customWidth="1"/>
     <col min="2" max="2" width="11.33203125" style="3" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16" style="4" customWidth="1"/>
     <col min="4" max="4" width="23.33203125" style="3" customWidth="1"/>
-    <col min="5" max="6" width="15.109375" style="2" customWidth="1"/>
-    <col min="7" max="7" width="10.44140625" style="2" customWidth="1"/>
+    <col min="5" max="6" width="15.1640625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="10.5" style="2" customWidth="1"/>
     <col min="8" max="8" width="11.6640625" style="2" customWidth="1"/>
-    <col min="9" max="9" width="10.44140625" style="2" customWidth="1"/>
-    <col min="10" max="10" width="40.6640625" style="2" customWidth="1"/>
+    <col min="9" max="9" width="10.5" style="2" customWidth="1"/>
+    <col min="10" max="10" width="56.5" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="5" customFormat="1" ht="85.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" s="5" customFormat="1" ht="86" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -1835,7 +1835,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" s="12" t="s">
         <v>30</v>
       </c>
@@ -1876,7 +1876,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3" s="12" t="s">
         <v>38</v>
       </c>
@@ -1920,7 +1920,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" s="16" t="s">
         <v>51</v>
       </c>
@@ -1964,7 +1964,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="12" t="s">
         <v>59</v>
       </c>
@@ -2005,7 +2005,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" s="12" t="s">
         <v>12</v>
       </c>
@@ -2046,7 +2046,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7" s="12" t="s">
         <v>26</v>
       </c>
@@ -2087,7 +2087,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8" s="12" t="s">
         <v>34</v>
       </c>
@@ -2131,7 +2131,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9" s="16" t="s">
         <v>55</v>
       </c>
@@ -2172,7 +2172,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A10" s="12" t="s">
         <v>16</v>
       </c>
@@ -2213,7 +2213,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A11" s="16" t="s">
         <v>42</v>
       </c>
@@ -2254,7 +2254,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A12" s="16" t="s">
         <v>47</v>
       </c>
@@ -2295,15 +2295,15 @@
         <v>69</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="M13" s="19"/>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C14" s="4" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B15" s="29"/>
       <c r="C15" s="30" t="s">
         <v>275</v>
@@ -2312,7 +2312,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>274</v>
       </c>
@@ -2328,7 +2328,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:61" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:61" x14ac:dyDescent="0.2">
       <c r="B17" s="29" t="s">
         <v>276</v>
       </c>
@@ -2341,7 +2341,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="18" spans="1:61" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:61" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="1"/>
       <c r="C18" s="4"/>
       <c r="E18" s="2"/>
@@ -2402,7 +2402,7 @@
       <c r="BH18"/>
       <c r="BI18"/>
     </row>
-    <row r="19" spans="1:61" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:61" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19" s="1"/>
       <c r="C19" s="4"/>
       <c r="E19" s="2"/>
@@ -2463,7 +2463,7 @@
       <c r="BH19"/>
       <c r="BI19"/>
     </row>
-    <row r="20" spans="1:61" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:61" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A20" s="1"/>
       <c r="C20" s="4"/>
       <c r="E20" s="2"/>
@@ -2524,7 +2524,7 @@
       <c r="BH20"/>
       <c r="BI20"/>
     </row>
-    <row r="21" spans="1:61" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:61" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A21" s="1"/>
       <c r="C21" s="4"/>
       <c r="E21" s="2"/>
@@ -2585,7 +2585,7 @@
       <c r="BH21"/>
       <c r="BI21"/>
     </row>
-    <row r="22" spans="1:61" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:61" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A22" s="1"/>
       <c r="C22" s="4"/>
       <c r="E22" s="2"/>
@@ -2646,7 +2646,7 @@
       <c r="BH22"/>
       <c r="BI22"/>
     </row>
-    <row r="23" spans="1:61" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:61" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A23" s="1"/>
       <c r="C23" s="4"/>
       <c r="E23" s="2"/>
@@ -2707,7 +2707,7 @@
       <c r="BH23"/>
       <c r="BI23"/>
     </row>
-    <row r="24" spans="1:61" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:61" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A24" s="1"/>
       <c r="C24" s="4"/>
       <c r="E24" s="2"/>
@@ -2768,7 +2768,7 @@
       <c r="BH24"/>
       <c r="BI24"/>
     </row>
-    <row r="25" spans="1:61" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:61" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A25" s="1"/>
       <c r="C25" s="4"/>
       <c r="E25" s="2"/>
@@ -2829,7 +2829,7 @@
       <c r="BH25"/>
       <c r="BI25"/>
     </row>
-    <row r="26" spans="1:61" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:61" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A26" s="1"/>
       <c r="C26" s="4"/>
       <c r="E26" s="2"/>
@@ -2909,19 +2909,19 @@
   <dimension ref="A1:N21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="18.6640625" customWidth="1"/>
-    <col min="2" max="2" width="11.21875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.109375" style="19" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.1640625" style="19" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10.33203125" customWidth="1"/>
-    <col min="9" max="9" width="56.21875" customWidth="1"/>
+    <col min="9" max="9" width="56.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="72" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" ht="80" x14ac:dyDescent="0.2">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -2962,7 +2962,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>91</v>
       </c>
@@ -2998,7 +2998,7 @@
       </c>
       <c r="N2" s="21"/>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>130</v>
       </c>
@@ -3034,7 +3034,7 @@
       </c>
       <c r="N3" s="21"/>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>143</v>
       </c>
@@ -3070,7 +3070,7 @@
       </c>
       <c r="N4" s="21"/>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>147</v>
       </c>
@@ -3106,7 +3106,7 @@
       </c>
       <c r="N5" s="21"/>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>96</v>
       </c>
@@ -3142,7 +3142,7 @@
       </c>
       <c r="N6" s="21"/>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>127</v>
       </c>
@@ -3178,7 +3178,7 @@
       </c>
       <c r="N7" s="21"/>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>135</v>
       </c>
@@ -3217,7 +3217,7 @@
       </c>
       <c r="N8" s="21"/>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>112</v>
       </c>
@@ -3253,7 +3253,7 @@
       </c>
       <c r="N9" s="21"/>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>140</v>
       </c>
@@ -3289,7 +3289,7 @@
       </c>
       <c r="N10" s="21"/>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>268</v>
       </c>
@@ -3325,7 +3325,7 @@
       </c>
       <c r="N11" s="21"/>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>104</v>
       </c>
@@ -3361,7 +3361,7 @@
       </c>
       <c r="N12" s="21"/>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>108</v>
       </c>
@@ -3397,7 +3397,7 @@
       </c>
       <c r="N13" s="21"/>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>116</v>
       </c>
@@ -3436,7 +3436,7 @@
       </c>
       <c r="N14" s="21"/>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>119</v>
       </c>
@@ -3472,7 +3472,7 @@
       </c>
       <c r="N15" s="21"/>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>124</v>
       </c>
@@ -3511,10 +3511,10 @@
       </c>
       <c r="N16" s="21"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="K17" s="24"/>
     </row>
-    <row r="18" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A18" s="1"/>
       <c r="B18" s="3"/>
       <c r="C18" s="4" t="s">
@@ -3522,7 +3522,7 @@
       </c>
       <c r="D18" s="3"/>
     </row>
-    <row r="19" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A19" s="1"/>
       <c r="B19" s="29"/>
       <c r="C19" s="30" t="s">
@@ -3532,7 +3532,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="20" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>274</v>
       </c>
@@ -3548,7 +3548,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A21" s="1"/>
       <c r="B21" s="29" t="s">
         <v>276</v>
@@ -3588,23 +3588,23 @@
       <selection activeCell="J1" sqref="J1:J1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="22.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="32" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.83203125" bestFit="1" customWidth="1"/>
     <col min="7" max="8" width="8.33203125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.1640625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="8.33203125" bestFit="1" customWidth="1"/>
     <col min="12" max="13" width="8.6640625" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="7.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="72" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" ht="80" x14ac:dyDescent="0.2">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -3651,7 +3651,7 @@
       <c r="P1" s="27"/>
       <c r="Q1" s="27"/>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>159</v>
       </c>
@@ -3689,7 +3689,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>177</v>
       </c>
@@ -3727,7 +3727,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>181</v>
       </c>
@@ -3765,7 +3765,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="16" t="s">
         <v>21</v>
       </c>
@@ -3806,7 +3806,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>143</v>
       </c>
@@ -3844,7 +3844,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>153</v>
       </c>
@@ -3882,7 +3882,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>161</v>
       </c>
@@ -3920,7 +3920,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>166</v>
       </c>
@@ -3958,7 +3958,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>169</v>
       </c>
@@ -3996,7 +3996,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>183</v>
       </c>
@@ -4034,7 +4034,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>140</v>
       </c>
@@ -4072,7 +4072,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>173</v>
       </c>
@@ -4110,7 +4110,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>147</v>
       </c>
@@ -4148,7 +4148,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>155</v>
       </c>
@@ -4186,7 +4186,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>186</v>
       </c>
@@ -4224,7 +4224,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="18" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A18" s="1"/>
       <c r="B18" s="3"/>
       <c r="C18" s="4" t="s">
@@ -4232,7 +4232,7 @@
       </c>
       <c r="D18" s="3"/>
     </row>
-    <row r="19" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A19" s="1"/>
       <c r="B19" s="29"/>
       <c r="C19" s="30" t="s">
@@ -4242,7 +4242,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="20" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>274</v>
       </c>
@@ -4258,7 +4258,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A21" s="1"/>
       <c r="B21" s="29" t="s">
         <v>276</v>
@@ -4297,18 +4297,18 @@
   <dimension ref="A1:M21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="O9" sqref="O9"/>
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="15.88671875" customWidth="1"/>
-    <col min="2" max="2" width="11.21875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="19.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.83203125" customWidth="1"/>
+    <col min="2" max="2" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.1640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="72" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" ht="80" x14ac:dyDescent="0.2">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -4349,7 +4349,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>177</v>
       </c>
@@ -4384,7 +4384,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>196</v>
       </c>
@@ -4419,7 +4419,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>199</v>
       </c>
@@ -4454,7 +4454,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>119</v>
       </c>
@@ -4489,7 +4489,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>100</v>
       </c>
@@ -4524,7 +4524,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>161</v>
       </c>
@@ -4559,7 +4559,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>166</v>
       </c>
@@ -4594,7 +4594,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>193</v>
       </c>
@@ -4629,7 +4629,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>169</v>
       </c>
@@ -4664,7 +4664,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>173</v>
       </c>
@@ -4699,7 +4699,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>190</v>
       </c>
@@ -4734,7 +4734,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>96</v>
       </c>
@@ -4769,7 +4769,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>104</v>
       </c>
@@ -4804,7 +4804,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>124</v>
       </c>
@@ -4839,7 +4839,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>127</v>
       </c>
@@ -4874,7 +4874,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="18" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A18" s="1"/>
       <c r="B18" s="3"/>
       <c r="C18" s="4" t="s">
@@ -4882,7 +4882,7 @@
       </c>
       <c r="D18" s="3"/>
     </row>
-    <row r="19" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A19" s="1"/>
       <c r="B19" s="29"/>
       <c r="C19" s="30" t="s">
@@ -4892,7 +4892,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="20" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>274</v>
       </c>
@@ -4908,7 +4908,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A21" s="1"/>
       <c r="B21" s="29" t="s">
         <v>276</v>
@@ -4963,15 +4963,15 @@
       <selection activeCell="N12" sqref="N12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="15.44140625" customWidth="1"/>
-    <col min="2" max="2" width="11.21875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.5" customWidth="1"/>
+    <col min="2" max="2" width="11.1640625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10.33203125" customWidth="1"/>
-    <col min="10" max="10" width="79.5546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="79.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="72" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" ht="80" x14ac:dyDescent="0.2">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -5015,7 +5015,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>119</v>
       </c>
@@ -5053,7 +5053,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>208</v>
       </c>
@@ -5091,7 +5091,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" s="16" t="s">
         <v>21</v>
       </c>
@@ -5132,7 +5132,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>91</v>
       </c>
@@ -5170,7 +5170,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>112</v>
       </c>
@@ -5208,7 +5208,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>116</v>
       </c>
@@ -5246,7 +5246,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>124</v>
       </c>
@@ -5287,7 +5287,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>127</v>
       </c>
@@ -5325,7 +5325,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>130</v>
       </c>
@@ -5363,7 +5363,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>135</v>
       </c>
@@ -5401,7 +5401,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>202</v>
       </c>
@@ -5442,7 +5442,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>205</v>
       </c>
@@ -5480,7 +5480,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>224</v>
       </c>
@@ -5518,7 +5518,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>199</v>
       </c>
@@ -5556,7 +5556,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>231</v>
       </c>
@@ -5594,13 +5594,13 @@
         <v>69</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="F17" s="21"/>
       <c r="G17" s="21"/>
       <c r="H17" s="21"/>
       <c r="I17" s="21"/>
     </row>
-    <row r="18" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A18" s="1"/>
       <c r="B18" s="3"/>
       <c r="C18" s="4" t="s">
@@ -5612,7 +5612,7 @@
       <c r="H18" s="21"/>
       <c r="I18" s="21"/>
     </row>
-    <row r="19" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A19" s="1"/>
       <c r="B19" s="29"/>
       <c r="C19" s="30" t="s">
@@ -5622,7 +5622,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="20" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>274</v>
       </c>
@@ -5638,7 +5638,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A21" s="1"/>
       <c r="B21" s="29" t="s">
         <v>276</v>
@@ -5682,18 +5682,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CDFC13CB-1E16-445F-B03C-F45B7C902414}">
   <dimension ref="A1:N21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J38" sqref="J38"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J25" sqref="J25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="20.6640625" customWidth="1"/>
     <col min="2" max="2" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="72" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" ht="80" x14ac:dyDescent="0.2">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -5737,7 +5737,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>251</v>
       </c>
@@ -5775,7 +5775,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>254</v>
       </c>
@@ -5813,7 +5813,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>258</v>
       </c>
@@ -5851,7 +5851,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>241</v>
       </c>
@@ -5892,7 +5892,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>245</v>
       </c>
@@ -5930,7 +5930,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>249</v>
       </c>
@@ -5968,7 +5968,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>137</v>
       </c>
@@ -6006,7 +6006,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>220</v>
       </c>
@@ -6044,7 +6044,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>228</v>
       </c>
@@ -6082,7 +6082,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>214</v>
       </c>
@@ -6120,7 +6120,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>234</v>
       </c>
@@ -6158,7 +6158,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>237</v>
       </c>
@@ -6196,7 +6196,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>210</v>
       </c>
@@ -6234,7 +6234,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>216</v>
       </c>
@@ -6272,7 +6272,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>231</v>
       </c>
@@ -6310,7 +6310,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="18" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A18" s="1"/>
       <c r="B18" s="3"/>
       <c r="C18" s="4" t="s">
@@ -6318,7 +6318,7 @@
       </c>
       <c r="D18" s="3"/>
     </row>
-    <row r="19" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A19" s="1"/>
       <c r="B19" s="29"/>
       <c r="C19" s="30" t="s">
@@ -6328,7 +6328,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="20" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>274</v>
       </c>
@@ -6344,7 +6344,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A21" s="1"/>
       <c r="B21" s="29" t="s">
         <v>276</v>
@@ -6383,14 +6383,14 @@
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="22.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="37" t="s">
         <v>261</v>
       </c>
@@ -6401,7 +6401,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="32" t="s">
         <v>263</v>
       </c>
@@ -6414,7 +6414,7 @@
         <v>0.13333333333333333</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="33" t="s">
         <v>264</v>
       </c>
@@ -6427,7 +6427,7 @@
         <v>0.13333333333333333</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="33" t="s">
         <v>265</v>
       </c>
@@ -6440,7 +6440,7 @@
         <v>0.26666666666666666</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="33" t="s">
         <v>291</v>
       </c>
@@ -6453,7 +6453,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="33" t="s">
         <v>266</v>
       </c>
@@ -6466,7 +6466,7 @@
         <v>0.93333333333333335</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="34" t="s">
         <v>267</v>
       </c>
@@ -6492,34 +6492,34 @@
       <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>281</v>
       </c>
@@ -6530,12 +6530,11 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="744ee8c3-d4cc-4404-9f81-62cc331ea962" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -6766,17 +6765,27 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="744ee8c3-d4cc-4404-9f81-62cc331ea962" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{585B1D7F-8851-487A-B804-7C0F84194452}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F246C6BD-E632-42C5-8A87-FAE65590955B}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="423c17ce-6268-4b1c-ac90-89bcb891e8dc"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="744ee8c3-d4cc-4404-9f81-62cc331ea962"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -6801,18 +6810,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F246C6BD-E632-42C5-8A87-FAE65590955B}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{585B1D7F-8851-487A-B804-7C0F84194452}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="423c17ce-6268-4b1c-ac90-89bcb891e8dc"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="744ee8c3-d4cc-4404-9f81-62cc331ea962"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/data/StopTox_Validation_Raw_Data.xlsx
+++ b/data/StopTox_Validation_Raw_Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ricat/Documents/GitHub/StopTox-External-Validation/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0302C899-04C6-C746-99FA-895AF00649C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88FAA0F9-5F83-344B-85C7-601FD5CDAFAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9360" yWindow="500" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{824EBEB4-6457-4996-BFC7-D3F41352EBA8}"/>
+    <workbookView xWindow="43020" yWindow="2900" windowWidth="29040" windowHeight="15840" xr2:uid="{824EBEB4-6457-4996-BFC7-D3F41352EBA8}"/>
   </bookViews>
   <sheets>
     <sheet name="Skin sensitization" sheetId="1" r:id="rId1"/>
@@ -23,12 +23,12 @@
     <sheet name="ReadMe" sheetId="8" r:id="rId8"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'Acute Dermal Toxicity'!$A$1:$N$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Acute Inhalation Toxicity'!$A$1:$Q$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'Acute Oral Toxicity'!$A$1:$N$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'Acute Dermal Toxicity'!$A$1:$M$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Acute Inhalation Toxicity'!$A$1:$P$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'Acute Oral Toxicity'!$A$1:$M$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Eye Irritation-Corrosion'!$A$1:$M$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Skin Irritation-Corrosion'!$A$1:$M$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Skin sensitization'!$A$1:$N$26</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Skin Irritation-Corrosion'!$A$1:$L$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Skin sensitization'!$A$1:$M$26</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="636" uniqueCount="292">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="622" uniqueCount="288">
   <si>
     <t>Chemical Name</t>
   </si>
@@ -869,9 +869,6 @@
     <t>&gt;5000</t>
   </si>
   <si>
-    <t>Isomeric SMILES will create structure, but will not create prediction data or figures</t>
-  </si>
-  <si>
     <t>Predicted</t>
   </si>
   <si>
@@ -902,12 +899,6 @@
     <t>DEICT = Draize Eye Irritation Corrosion Test</t>
   </si>
   <si>
-    <t>Predicted as Toxic in practice set, but not when applied to the program</t>
-  </si>
-  <si>
-    <t>CASRN paired with 112-02-7 in practice set, predicted as Toxic in practice set, but not when applied to the program</t>
-  </si>
-  <si>
     <t>164.083729621 </t>
   </si>
   <si>
@@ -921,9 +912,6 @@
   </si>
   <si>
     <t>Correct Classification</t>
-  </si>
-  <si>
-    <t>How to decide 0 or 1 with 50% probability?</t>
   </si>
   <si>
     <t>Eye Irritation-Corrosion</t>
@@ -1769,13 +1757,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E08C925-0D69-45B8-A164-827572550239}">
-  <dimension ref="A1:BI26"/>
+  <dimension ref="A1:BH26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="H2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="H23" sqref="H23"/>
+      <selection pane="bottomRight" activeCell="N1" sqref="N1:N1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1791,7 +1779,7 @@
     <col min="10" max="10" width="56.5" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="5" customFormat="1" ht="86" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" s="5" customFormat="1" ht="86" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -1831,11 +1819,8 @@
       <c r="M1" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="N1" s="6" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" s="12" t="s">
         <v>30</v>
       </c>
@@ -1876,7 +1861,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" s="12" t="s">
         <v>38</v>
       </c>
@@ -1916,11 +1901,8 @@
       <c r="M3" s="20" t="s">
         <v>69</v>
       </c>
-      <c r="N3" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" s="16" t="s">
         <v>51</v>
       </c>
@@ -1960,11 +1942,8 @@
       <c r="M4" s="20" t="s">
         <v>260</v>
       </c>
-      <c r="N4" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="12" t="s">
         <v>59</v>
       </c>
@@ -2005,7 +1984,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" s="12" t="s">
         <v>12</v>
       </c>
@@ -2046,7 +2025,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" s="12" t="s">
         <v>26</v>
       </c>
@@ -2087,7 +2066,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" s="12" t="s">
         <v>34</v>
       </c>
@@ -2127,11 +2106,8 @@
       <c r="M8" s="19" t="s">
         <v>69</v>
       </c>
-      <c r="N8" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" s="16" t="s">
         <v>55</v>
       </c>
@@ -2172,7 +2148,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" s="12" t="s">
         <v>16</v>
       </c>
@@ -2213,7 +2189,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11" s="16" t="s">
         <v>42</v>
       </c>
@@ -2254,7 +2230,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12" s="16" t="s">
         <v>47</v>
       </c>
@@ -2295,29 +2271,29 @@
         <v>69</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="M13" s="19"/>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C14" s="4" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B15" s="29"/>
       <c r="C15" s="30" t="s">
+        <v>274</v>
+      </c>
+      <c r="D15" s="29" t="s">
         <v>275</v>
       </c>
-      <c r="D15" s="29" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="B16" s="29" t="s">
         <v>274</v>
-      </c>
-      <c r="B16" s="29" t="s">
-        <v>275</v>
       </c>
       <c r="C16" s="31">
         <f>COUNTIFS($G2:$G12, "=0", $K2:$K12, "=0")</f>
@@ -2328,9 +2304,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:61" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:60" x14ac:dyDescent="0.2">
       <c r="B17" s="29" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C17" s="31">
         <f>COUNTIFS($G2:$G12, "=1", $K2:$K12, "=0")</f>
@@ -2341,7 +2317,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="18" spans="1:61" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:60" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="1"/>
       <c r="C18" s="4"/>
       <c r="E18" s="2"/>
@@ -2400,9 +2376,8 @@
       <c r="BF18"/>
       <c r="BG18"/>
       <c r="BH18"/>
-      <c r="BI18"/>
-    </row>
-    <row r="19" spans="1:61" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="19" spans="1:60" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19" s="1"/>
       <c r="C19" s="4"/>
       <c r="E19" s="2"/>
@@ -2461,9 +2436,8 @@
       <c r="BF19"/>
       <c r="BG19"/>
       <c r="BH19"/>
-      <c r="BI19"/>
-    </row>
-    <row r="20" spans="1:61" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="20" spans="1:60" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A20" s="1"/>
       <c r="C20" s="4"/>
       <c r="E20" s="2"/>
@@ -2522,9 +2496,8 @@
       <c r="BF20"/>
       <c r="BG20"/>
       <c r="BH20"/>
-      <c r="BI20"/>
-    </row>
-    <row r="21" spans="1:61" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="21" spans="1:60" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A21" s="1"/>
       <c r="C21" s="4"/>
       <c r="E21" s="2"/>
@@ -2583,9 +2556,8 @@
       <c r="BF21"/>
       <c r="BG21"/>
       <c r="BH21"/>
-      <c r="BI21"/>
-    </row>
-    <row r="22" spans="1:61" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="22" spans="1:60" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A22" s="1"/>
       <c r="C22" s="4"/>
       <c r="E22" s="2"/>
@@ -2644,9 +2616,8 @@
       <c r="BF22"/>
       <c r="BG22"/>
       <c r="BH22"/>
-      <c r="BI22"/>
-    </row>
-    <row r="23" spans="1:61" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="23" spans="1:60" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A23" s="1"/>
       <c r="C23" s="4"/>
       <c r="E23" s="2"/>
@@ -2705,9 +2676,8 @@
       <c r="BF23"/>
       <c r="BG23"/>
       <c r="BH23"/>
-      <c r="BI23"/>
-    </row>
-    <row r="24" spans="1:61" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="24" spans="1:60" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A24" s="1"/>
       <c r="C24" s="4"/>
       <c r="E24" s="2"/>
@@ -2766,9 +2736,8 @@
       <c r="BF24"/>
       <c r="BG24"/>
       <c r="BH24"/>
-      <c r="BI24"/>
-    </row>
-    <row r="25" spans="1:61" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="25" spans="1:60" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A25" s="1"/>
       <c r="C25" s="4"/>
       <c r="E25" s="2"/>
@@ -2827,9 +2796,8 @@
       <c r="BF25"/>
       <c r="BG25"/>
       <c r="BH25"/>
-      <c r="BI25"/>
-    </row>
-    <row r="26" spans="1:61" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="26" spans="1:60" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A26" s="1"/>
       <c r="C26" s="4"/>
       <c r="E26" s="2"/>
@@ -2888,11 +2856,10 @@
       <c r="BF26"/>
       <c r="BG26"/>
       <c r="BH26"/>
-      <c r="BI26"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:N26" xr:uid="{00000000-0001-0000-0100-000000000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:N26">
+  <autoFilter ref="A1:M26" xr:uid="{00000000-0001-0000-0100-000000000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:M26">
       <sortCondition descending="1" ref="I1:I26"/>
     </sortState>
   </autoFilter>
@@ -2906,22 +2873,22 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3B228F5-688D-464B-96FD-E9ABE388A426}">
-  <dimension ref="A1:N21"/>
+  <dimension ref="A1:M21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+    <sheetView topLeftCell="B1" zoomScale="117" workbookViewId="0">
+      <selection activeCell="M1" sqref="M1:M1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="18.6640625" customWidth="1"/>
+    <col min="1" max="1" width="37.1640625" customWidth="1"/>
     <col min="2" max="2" width="11.1640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14.1640625" style="19" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10.33203125" customWidth="1"/>
     <col min="9" max="9" width="56.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="80" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" ht="80" x14ac:dyDescent="0.2">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -2958,11 +2925,8 @@
       <c r="L1" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="M1" s="6" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>91</v>
       </c>
@@ -2973,7 +2937,7 @@
         <v>94</v>
       </c>
       <c r="E2" s="19" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="F2" s="21">
         <v>0</v>
@@ -2996,9 +2960,9 @@
       <c r="L2" t="s">
         <v>69</v>
       </c>
-      <c r="N2" s="21"/>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="M2" s="21"/>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>130</v>
       </c>
@@ -3032,9 +2996,9 @@
       <c r="L3" t="s">
         <v>69</v>
       </c>
-      <c r="N3" s="21"/>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="M3" s="21"/>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>143</v>
       </c>
@@ -3068,9 +3032,9 @@
       <c r="L4" t="s">
         <v>69</v>
       </c>
-      <c r="N4" s="21"/>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="M4" s="21"/>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>147</v>
       </c>
@@ -3104,9 +3068,9 @@
       <c r="L5" t="s">
         <v>69</v>
       </c>
-      <c r="N5" s="21"/>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="M5" s="21"/>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>96</v>
       </c>
@@ -3140,9 +3104,9 @@
       <c r="L6" t="s">
         <v>69</v>
       </c>
-      <c r="N6" s="21"/>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="M6" s="21"/>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>127</v>
       </c>
@@ -3176,9 +3140,9 @@
       <c r="L7" t="s">
         <v>69</v>
       </c>
-      <c r="N7" s="21"/>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="M7" s="21"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>135</v>
       </c>
@@ -3212,12 +3176,9 @@
       <c r="L8" t="s">
         <v>69</v>
       </c>
-      <c r="M8" t="s">
-        <v>290</v>
-      </c>
-      <c r="N8" s="21"/>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="M8" s="21"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>112</v>
       </c>
@@ -3251,9 +3212,9 @@
       <c r="L9" t="s">
         <v>69</v>
       </c>
-      <c r="N9" s="21"/>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="M9" s="21"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>140</v>
       </c>
@@ -3287,9 +3248,9 @@
       <c r="L10" t="s">
         <v>260</v>
       </c>
-      <c r="N10" s="21"/>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="M10" s="21"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>268</v>
       </c>
@@ -3323,9 +3284,9 @@
       <c r="L11" t="s">
         <v>69</v>
       </c>
-      <c r="N11" s="21"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="M11" s="21"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>104</v>
       </c>
@@ -3359,9 +3320,9 @@
       <c r="L12" t="s">
         <v>69</v>
       </c>
-      <c r="N12" s="21"/>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="M12" s="21"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>108</v>
       </c>
@@ -3372,7 +3333,7 @@
         <v>110</v>
       </c>
       <c r="E13" s="19" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="F13" s="21">
         <v>0</v>
@@ -3395,9 +3356,9 @@
       <c r="L13" t="s">
         <v>69</v>
       </c>
-      <c r="N13" s="21"/>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="M13" s="21"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>116</v>
       </c>
@@ -3408,7 +3369,7 @@
         <v>118</v>
       </c>
       <c r="E14" s="19" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="F14" s="21">
         <v>0</v>
@@ -3431,12 +3392,9 @@
       <c r="L14" t="s">
         <v>69</v>
       </c>
-      <c r="M14" t="s">
-        <v>290</v>
-      </c>
-      <c r="N14" s="21"/>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="M14" s="21"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>119</v>
       </c>
@@ -3447,7 +3405,7 @@
         <v>121</v>
       </c>
       <c r="E15" s="19" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="F15" s="21">
         <v>0</v>
@@ -3470,9 +3428,9 @@
       <c r="L15" t="s">
         <v>69</v>
       </c>
-      <c r="N15" s="21"/>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="M15" s="21"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>124</v>
       </c>
@@ -3506,10 +3464,7 @@
       <c r="L16" t="s">
         <v>69</v>
       </c>
-      <c r="M16" t="s">
-        <v>290</v>
-      </c>
-      <c r="N16" s="21"/>
+      <c r="M16" s="21"/>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="K17" s="24"/>
@@ -3518,7 +3473,7 @@
       <c r="A18" s="1"/>
       <c r="B18" s="3"/>
       <c r="C18" s="4" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D18" s="3"/>
     </row>
@@ -3526,18 +3481,18 @@
       <c r="A19" s="1"/>
       <c r="B19" s="29"/>
       <c r="C19" s="30" t="s">
+        <v>274</v>
+      </c>
+      <c r="D19" s="29" t="s">
         <v>275</v>
-      </c>
-      <c r="D19" s="29" t="s">
-        <v>276</v>
       </c>
     </row>
     <row r="20" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="B20" s="29" t="s">
         <v>274</v>
-      </c>
-      <c r="B20" s="29" t="s">
-        <v>275</v>
       </c>
       <c r="C20" s="31">
         <f>COUNTIFS($G2:$G16, "=0", $J2:$J16, "=0")</f>
@@ -3551,7 +3506,7 @@
     <row r="21" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A21" s="1"/>
       <c r="B21" s="29" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C21" s="31">
         <f>COUNTIFS($G2:$G16, "=1", $J2:$J16, "=0")</f>
@@ -3563,8 +3518,8 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:M1" xr:uid="{D3B228F5-688D-464B-96FD-E9ABE388A426}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:M16">
+  <autoFilter ref="A1:L1" xr:uid="{D3B228F5-688D-464B-96FD-E9ABE388A426}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:L16">
       <sortCondition descending="1" ref="H1"/>
     </sortState>
   </autoFilter>
@@ -3582,10 +3537,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DFCDD1BF-52A0-4873-9F40-3E5A95E00444}">
-  <dimension ref="A1:Q21"/>
+  <dimension ref="A1:P21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J1" sqref="J1:J1048576"/>
+      <selection activeCell="N1" sqref="N1:N1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3601,10 +3556,9 @@
     <col min="10" max="10" width="15.1640625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="8.33203125" bestFit="1" customWidth="1"/>
     <col min="12" max="13" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="7.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="80" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16" ht="80" x14ac:dyDescent="0.2">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -3644,14 +3598,11 @@
       <c r="M1" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="N1" s="6" t="s">
-        <v>65</v>
-      </c>
+      <c r="N1" s="27"/>
       <c r="O1" s="27"/>
       <c r="P1" s="27"/>
-      <c r="Q1" s="27"/>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>159</v>
       </c>
@@ -3689,7 +3640,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>177</v>
       </c>
@@ -3727,7 +3678,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>181</v>
       </c>
@@ -3765,7 +3716,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="16" t="s">
         <v>21</v>
       </c>
@@ -3806,7 +3757,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>143</v>
       </c>
@@ -3844,7 +3795,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>153</v>
       </c>
@@ -3882,7 +3833,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>161</v>
       </c>
@@ -3920,7 +3871,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>166</v>
       </c>
@@ -3958,7 +3909,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>169</v>
       </c>
@@ -3996,7 +3947,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>183</v>
       </c>
@@ -4034,7 +3985,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>140</v>
       </c>
@@ -4072,7 +4023,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>173</v>
       </c>
@@ -4110,7 +4061,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>147</v>
       </c>
@@ -4148,7 +4099,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>155</v>
       </c>
@@ -4186,7 +4137,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>186</v>
       </c>
@@ -4228,7 +4179,7 @@
       <c r="A18" s="1"/>
       <c r="B18" s="3"/>
       <c r="C18" s="4" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D18" s="3"/>
     </row>
@@ -4236,18 +4187,18 @@
       <c r="A19" s="1"/>
       <c r="B19" s="29"/>
       <c r="C19" s="30" t="s">
+        <v>274</v>
+      </c>
+      <c r="D19" s="29" t="s">
         <v>275</v>
-      </c>
-      <c r="D19" s="29" t="s">
-        <v>276</v>
       </c>
     </row>
     <row r="20" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="B20" s="29" t="s">
         <v>274</v>
-      </c>
-      <c r="B20" s="29" t="s">
-        <v>275</v>
       </c>
       <c r="C20" s="31">
         <f>COUNTIFS($G2:$G16, "=0", $K2:$K16, "=0")</f>
@@ -4261,7 +4212,7 @@
     <row r="21" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A21" s="1"/>
       <c r="B21" s="29" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C21" s="31">
         <f>COUNTIFS($G2:$G16, "=1", $K2:$K16, "=0")</f>
@@ -4273,8 +4224,8 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:Q1" xr:uid="{DFCDD1BF-52A0-4873-9F40-3E5A95E00444}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:Q16">
+  <autoFilter ref="A1:P1" xr:uid="{DFCDD1BF-52A0-4873-9F40-3E5A95E00444}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:P16">
       <sortCondition descending="1" ref="I1"/>
     </sortState>
   </autoFilter>
@@ -4465,7 +4416,7 @@
         <v>121</v>
       </c>
       <c r="E5" s="21" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="F5" s="21">
         <v>1</v>
@@ -4500,7 +4451,7 @@
         <v>102</v>
       </c>
       <c r="E6" s="21" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="F6" s="21">
         <v>1</v>
@@ -4878,7 +4829,7 @@
       <c r="A18" s="1"/>
       <c r="B18" s="3"/>
       <c r="C18" s="4" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D18" s="3"/>
     </row>
@@ -4886,18 +4837,18 @@
       <c r="A19" s="1"/>
       <c r="B19" s="29"/>
       <c r="C19" s="30" t="s">
+        <v>274</v>
+      </c>
+      <c r="D19" s="29" t="s">
         <v>275</v>
-      </c>
-      <c r="D19" s="29" t="s">
-        <v>276</v>
       </c>
     </row>
     <row r="20" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="B20" s="29" t="s">
         <v>274</v>
-      </c>
-      <c r="B20" s="29" t="s">
-        <v>275</v>
       </c>
       <c r="C20" s="31">
         <f>COUNTIFS($G2:$G16, "=0", $J2:$J16, "=0")</f>
@@ -4911,7 +4862,7 @@
     <row r="21" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A21" s="1"/>
       <c r="B21" s="29" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C21" s="31">
         <f>COUNTIFS($G2:$G16, "=1", $J2:$J16, "=0")</f>
@@ -4957,10 +4908,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5AEDA412-86B9-47F5-8419-91D8ED17EF6A}">
-  <dimension ref="A1:N21"/>
+  <dimension ref="A1:M21"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="N12" sqref="N12"/>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="N1" sqref="N1:N1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4971,7 +4922,7 @@
     <col min="10" max="10" width="79.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="80" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" ht="80" x14ac:dyDescent="0.2">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -5011,11 +4962,8 @@
       <c r="M1" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="N1" s="6" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>119</v>
       </c>
@@ -5026,7 +4974,7 @@
         <v>121</v>
       </c>
       <c r="E2" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="F2" s="21">
         <v>1</v>
@@ -5053,7 +5001,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>208</v>
       </c>
@@ -5091,7 +5039,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" s="16" t="s">
         <v>21</v>
       </c>
@@ -5132,7 +5080,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>91</v>
       </c>
@@ -5143,7 +5091,7 @@
         <v>94</v>
       </c>
       <c r="E5" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="F5" s="21">
         <v>1</v>
@@ -5170,7 +5118,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>112</v>
       </c>
@@ -5208,7 +5156,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>116</v>
       </c>
@@ -5219,7 +5167,7 @@
         <v>118</v>
       </c>
       <c r="E7" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="F7" s="21">
         <v>1</v>
@@ -5246,7 +5194,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>124</v>
       </c>
@@ -5283,11 +5231,8 @@
       <c r="M8" t="s">
         <v>69</v>
       </c>
-      <c r="N8" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>127</v>
       </c>
@@ -5325,7 +5270,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>130</v>
       </c>
@@ -5363,7 +5308,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>135</v>
       </c>
@@ -5401,7 +5346,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>202</v>
       </c>
@@ -5438,11 +5383,8 @@
       <c r="M12" t="s">
         <v>69</v>
       </c>
-      <c r="N12" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>205</v>
       </c>
@@ -5480,7 +5422,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>224</v>
       </c>
@@ -5518,7 +5460,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>199</v>
       </c>
@@ -5556,7 +5498,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>231</v>
       </c>
@@ -5604,7 +5546,7 @@
       <c r="A18" s="1"/>
       <c r="B18" s="3"/>
       <c r="C18" s="4" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D18" s="3"/>
       <c r="F18" s="21"/>
@@ -5616,18 +5558,18 @@
       <c r="A19" s="1"/>
       <c r="B19" s="29"/>
       <c r="C19" s="30" t="s">
+        <v>274</v>
+      </c>
+      <c r="D19" s="29" t="s">
         <v>275</v>
-      </c>
-      <c r="D19" s="29" t="s">
-        <v>276</v>
       </c>
     </row>
     <row r="20" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="B20" s="29" t="s">
         <v>274</v>
-      </c>
-      <c r="B20" s="29" t="s">
-        <v>275</v>
       </c>
       <c r="C20" s="31">
         <f>COUNTIFS($G2:$G16, "=0", $K2:$K16, "=0")</f>
@@ -5641,7 +5583,7 @@
     <row r="21" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A21" s="1"/>
       <c r="B21" s="29" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C21" s="31">
         <f>COUNTIFS($G2:$G16, "=1", $K2:$K16, "=0")</f>
@@ -5653,8 +5595,8 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:N1" xr:uid="{5AEDA412-86B9-47F5-8419-91D8ED17EF6A}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:N16">
+  <autoFilter ref="A1:M1" xr:uid="{5AEDA412-86B9-47F5-8419-91D8ED17EF6A}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:M16">
       <sortCondition descending="1" ref="I1"/>
     </sortState>
   </autoFilter>
@@ -5680,10 +5622,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CDFC13CB-1E16-445F-B03C-F45B7C902414}">
-  <dimension ref="A1:N21"/>
+  <dimension ref="A1:M21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J25" sqref="J25"/>
+    <sheetView zoomScale="118" workbookViewId="0">
+      <selection activeCell="N1" sqref="N1:N1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -5693,7 +5635,7 @@
     <col min="10" max="10" width="13.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="80" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" ht="80" x14ac:dyDescent="0.2">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -5733,11 +5675,8 @@
       <c r="M1" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="N1" s="6" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>251</v>
       </c>
@@ -5775,7 +5714,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>254</v>
       </c>
@@ -5813,7 +5752,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>258</v>
       </c>
@@ -5851,7 +5790,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>241</v>
       </c>
@@ -5888,11 +5827,8 @@
       <c r="M5" t="s">
         <v>69</v>
       </c>
-      <c r="N5" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>245</v>
       </c>
@@ -5930,7 +5866,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>249</v>
       </c>
@@ -5968,7 +5904,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>137</v>
       </c>
@@ -6006,7 +5942,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>220</v>
       </c>
@@ -6044,7 +5980,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>228</v>
       </c>
@@ -6082,7 +6018,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>214</v>
       </c>
@@ -6120,7 +6056,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>234</v>
       </c>
@@ -6158,7 +6094,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>237</v>
       </c>
@@ -6196,7 +6132,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>210</v>
       </c>
@@ -6234,7 +6170,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>216</v>
       </c>
@@ -6272,7 +6208,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>231</v>
       </c>
@@ -6314,7 +6250,7 @@
       <c r="A18" s="1"/>
       <c r="B18" s="3"/>
       <c r="C18" s="4" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D18" s="3"/>
     </row>
@@ -6322,18 +6258,18 @@
       <c r="A19" s="1"/>
       <c r="B19" s="29"/>
       <c r="C19" s="30" t="s">
+        <v>274</v>
+      </c>
+      <c r="D19" s="29" t="s">
         <v>275</v>
-      </c>
-      <c r="D19" s="29" t="s">
-        <v>276</v>
       </c>
     </row>
     <row r="20" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="B20" s="29" t="s">
         <v>274</v>
-      </c>
-      <c r="B20" s="29" t="s">
-        <v>275</v>
       </c>
       <c r="C20" s="31">
         <f>COUNTIFS($G2:$G16, "=0", $K2:$K16, "=0")</f>
@@ -6347,7 +6283,7 @@
     <row r="21" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A21" s="1"/>
       <c r="B21" s="29" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C21" s="31">
         <f>COUNTIFS($G2:$G16, "=1", $K2:$K16, "=0")</f>
@@ -6359,8 +6295,8 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:N1" xr:uid="{CDFC13CB-1E16-445F-B03C-F45B7C902414}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:N16">
+  <autoFilter ref="A1:M1" xr:uid="{CDFC13CB-1E16-445F-B03C-F45B7C902414}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:M16">
       <sortCondition descending="1" ref="I1"/>
     </sortState>
   </autoFilter>
@@ -6395,7 +6331,7 @@
         <v>261</v>
       </c>
       <c r="B1" s="35" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="C1" s="36" t="s">
         <v>262</v>
@@ -6442,7 +6378,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="33" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="B5" s="39">
         <f>SUM('Eye Irritation-Corrosion'!C$20,'Eye Irritation-Corrosion'!D$21)/SUM('Eye Irritation-Corrosion'!C$20:D$21)</f>
@@ -6496,32 +6432,32 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
   </sheetData>
@@ -6530,14 +6466,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="744ee8c3-d4cc-4404-9f81-62cc331ea962" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100FEF89D721302654F900F63E6FE629A30" ma:contentTypeVersion="14" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="8f03c1bb26dc86ca15c05e91e8660ff3">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="423c17ce-6268-4b1c-ac90-89bcb891e8dc" xmlns:ns4="744ee8c3-d4cc-4404-9f81-62cc331ea962" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="48eb034b55b3f4f9070603558f3321cf" ns3:_="" ns4:_="">
     <xsd:import namespace="423c17ce-6268-4b1c-ac90-89bcb891e8dc"/>
@@ -6764,6 +6692,14 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="744ee8c3-d4cc-4404-9f81-62cc331ea962" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -6774,23 +6710,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F246C6BD-E632-42C5-8A87-FAE65590955B}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="423c17ce-6268-4b1c-ac90-89bcb891e8dc"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="744ee8c3-d4cc-4404-9f81-62cc331ea962"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E93F79F0-2E9C-4520-B3C3-70196E18B98D}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -6809,6 +6728,23 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F246C6BD-E632-42C5-8A87-FAE65590955B}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="423c17ce-6268-4b1c-ac90-89bcb891e8dc"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="744ee8c3-d4cc-4404-9f81-62cc331ea962"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{585B1D7F-8851-487A-B804-7C0F84194452}">
   <ds:schemaRefs>
